--- a/Files/Vaccine_November 21, 2003.xlsx
+++ b/Files/Vaccine_November 21, 2003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Infanrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 5 x 1 dose TIP-LOK syringe </t>
+    <t xml:space="preserve">10 x 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$19.65</t>
@@ -86,6 +86,9 @@
     <t xml:space="preserve">GlaxoSmithKline</t>
   </si>
   <si>
+    <t xml:space="preserve">5 x 1 dose TIP-LOK syringe </t>
+  </si>
+  <si>
     <t xml:space="preserve">DTaP-Hep B-IPV*</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t xml:space="preserve">5 x 1 dose syringe</t>
   </si>
   <si>
+    <t xml:space="preserve">DTaP-Hib</t>
+  </si>
+  <si>
     <t xml:space="preserve">TriHIBit</t>
   </si>
   <si>
@@ -131,7 +137,7 @@
     <t xml:space="preserve">$21.80</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B^</t>
+    <t xml:space="preserve">Hepatitis B-Hib</t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -179,16 +185,19 @@
     <t xml:space="preserve">Hepatitis A Adult</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-x 1 dose vials
-1 dose vial</t>
+    <t xml:space="preserve">10 x 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$17.75</t>
   </si>
   <si>
-    <t xml:space="preserve">$59.24
-$62.76</t>
+    <t xml:space="preserve">$59.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 dose vial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$62.76</t>
   </si>
   <si>
     <t xml:space="preserve">1 dose TIP-LOK</t>
@@ -224,7 +233,7 @@
     <t xml:space="preserve">$78.67</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -239,13 +248,7 @@
     <t xml:space="preserve">5 x1 T-L Syr No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">251 T-L Syr No Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 x1 T-L Syr 5/8&amp;Prime; Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">25 x1 T-L Syr 5/8" Needle</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -320,7 +323,7 @@
     <t xml:space="preserve">$21.78</t>
   </si>
   <si>
-    <t xml:space="preserve">InfluenzaInfluenza Preservative-free (ages 6 to 35 months)</t>
+    <t xml:space="preserve">Influenza Influenza Preservative-free (ages 6 to 35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -344,7 +347,7 @@
     <t xml:space="preserve">$12.00</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR</t>
+    <t xml:space="preserve">MMR/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -356,7 +359,7 @@
     <t xml:space="preserve">$34.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -652,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -672,10 +675,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -684,10 +687,10 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>38077</v>
@@ -701,22 +704,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="1">
         <v>38077</v>
@@ -730,28 +733,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>38077</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -759,22 +762,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1">
         <v>38077</v>
@@ -788,28 +791,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
         <v>38077</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -817,10 +820,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -829,16 +832,16 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
         <v>38077</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -846,22 +849,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1">
         <v>38077</v>
@@ -875,10 +878,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -887,10 +890,10 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1">
         <v>38077</v>
@@ -904,22 +907,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1">
         <v>38077</v>
@@ -933,22 +936,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
       </c>
       <c r="G15" s="1">
         <v>38077</v>
@@ -962,28 +965,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1">
         <v>38168</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -991,28 +994,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1">
         <v>38168</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1020,22 +1023,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1">
         <v>38168</v>
@@ -1049,22 +1052,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
       </c>
       <c r="G19" s="1">
         <v>38168</v>
@@ -1078,22 +1081,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1">
         <v>38168</v>
@@ -1107,25 +1110,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
       </c>
       <c r="G21" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>
@@ -1136,19 +1139,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
         <v>72</v>
@@ -1165,22 +1168,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1">
         <v>38077</v>
@@ -1194,22 +1197,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1">
         <v>38077</v>
@@ -1223,22 +1226,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1">
         <v>38077</v>
@@ -1252,22 +1255,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>75</v>
       </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1">
         <v>38077</v>
@@ -1281,28 +1284,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>78</v>
-      </c>
       <c r="G27" s="1">
         <v>38077</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1310,28 +1313,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
         <v>80</v>
       </c>
-      <c r="F28" t="s">
-        <v>81</v>
-      </c>
       <c r="G28" s="1">
         <v>38077</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1339,28 +1342,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>83</v>
       </c>
-      <c r="F29" t="s">
-        <v>81</v>
-      </c>
       <c r="G29" s="1">
-        <v>38168</v>
+        <v>38077</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1368,28 +1371,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" t="s">
-        <v>81</v>
       </c>
       <c r="G30" s="1">
         <v>38168</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1397,28 +1400,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>83</v>
-      </c>
-      <c r="F31" t="s">
-        <v>86</v>
       </c>
       <c r="G31" s="1">
         <v>38168</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1426,22 +1429,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" t="s">
         <v>85</v>
       </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G32" s="1">
         <v>38168</v>
@@ -1455,22 +1458,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" t="s">
-        <v>86</v>
       </c>
       <c r="G33" s="1">
         <v>38168</v>
@@ -1484,28 +1487,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
         <v>90</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
-      </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -1513,28 +1516,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
         <v>93</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>94</v>
       </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" t="s">
-        <v>96</v>
-      </c>
       <c r="G35" s="1">
         <v>38077</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -1542,28 +1545,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
         <v>98</v>
       </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G36" s="1">
+        <v>38077</v>
+      </c>
+      <c r="H36" t="s">
         <v>99</v>
-      </c>
-      <c r="F36" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="1">
-        <v>38077</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1571,25 +1574,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
         <v>101</v>
       </c>
-      <c r="B37" t="s">
+      <c r="F37" t="s">
         <v>102</v>
       </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
-      </c>
       <c r="G37" s="1">
-        <v>38017</v>
+        <v>38077</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -1600,22 +1603,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
         <v>106</v>
       </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>107</v>
-      </c>
-      <c r="E38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
       </c>
       <c r="G38" s="1">
         <v>38017</v>
@@ -1629,28 +1632,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
         <v>109</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
         <v>110</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" t="s">
-        <v>112</v>
-      </c>
       <c r="G39" s="1">
-        <v>38077</v>
+        <v>38017</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
@@ -1658,28 +1661,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
         <v>113</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
         <v>114</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" t="s">
-        <v>116</v>
-      </c>
       <c r="G40" s="1">
         <v>38077</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -1687,28 +1690,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
         <v>117</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" t="s">
-        <v>121</v>
-      </c>
       <c r="G41" s="1">
-        <v>38168</v>
+        <v>38077</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -1716,28 +1719,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" t="s">
+      <c r="F42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" t="s">
-        <v>125</v>
-      </c>
       <c r="G42" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
         <v>11</v>
@@ -1745,30 +1748,59 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="G43" s="1">
+        <v>38077</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
         <v>17</v>
       </c>
-      <c r="E43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="1">
-        <v>38077</v>
-      </c>
-      <c r="H43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="1">
+        <v>38077</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Files/Vaccine_November 21, 2003.xlsx
+++ b/Files/Vaccine_November 21, 2003.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">5 x 1 dose TIP-LOK syringe </t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
